--- a/results/Trofeo S.A.R Princesa Sofia 2017_Ilca 7.xlsx
+++ b/results/Trofeo S.A.R Princesa Sofia 2017_Ilca 7.xlsx
@@ -415,10 +415,10 @@
     <t>60.0</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>MR</t>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>MEDAL RACE</t>
   </si>
   <si>
     <t>STP</t>
